--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84BC05-9307-AD44-B446-75DFB49C1865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C1768E-DBAB-674D-8376-20C2557240AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,24 +564,24 @@
     <col min="14" max="18" width="3.33203125" customWidth="1"/>
     <col min="20" max="24" width="5.83203125" customWidth="1"/>
     <col min="26" max="30" width="5.83203125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" customWidth="1"/>
     <col min="32" max="36" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
-      <c r="AF6" s="23" t="s">
+      <c r="AF6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AG6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="23" t="s">
+      <c r="AG6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="23" t="s">
+      <c r="AI6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AJ6" s="23" t="s">
+      <c r="AJ6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -619,47 +619,47 @@
       <c r="X7" s="14">
         <v>0</v>
       </c>
-      <c r="Z7" s="18">
-        <f>T7/SQRT(5)</f>
-        <v>12.969194269498779</v>
-      </c>
-      <c r="AA7" s="15">
-        <f>U7/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="15">
-        <f>V7/SQRT(5)</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AC7" s="15">
-        <f>W7/SQRT(5)</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AD7" s="15">
-        <f>X7/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="19">
+      <c r="Z7" s="17">
+        <f>T7/SQRT(3)</f>
+        <v>16.743157806499148</v>
+      </c>
+      <c r="AA7" s="23">
+        <f t="shared" ref="AA7:AD7" si="0">U7/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="23">
+        <f t="shared" si="0"/>
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="AC7" s="23">
+        <f t="shared" si="0"/>
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="AD7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
         <f>EXP(Z7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
-        <v>0.99958737266299025</v>
-      </c>
-      <c r="AG7" s="20">
+        <v>0.99996546158746358</v>
+      </c>
+      <c r="AG7" s="19">
         <f>EXP(AA7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
-        <v>2.3300822700169269E-6</v>
-      </c>
-      <c r="AH7" s="20">
+        <v>5.3520967415834096E-8</v>
+      </c>
+      <c r="AH7" s="19">
         <f>EXP(AB7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
-        <v>2.0398358623483002E-4</v>
-      </c>
-      <c r="AI7" s="20">
+        <v>1.7215685300818019E-5</v>
+      </c>
+      <c r="AI7" s="19">
         <f>EXP(AC7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
-        <v>2.0398358623483002E-4</v>
-      </c>
-      <c r="AJ7" s="20">
+        <v>1.7215685300818019E-5</v>
+      </c>
+      <c r="AJ7" s="19">
         <f>EXP(AD7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
-        <v>2.3300822700169269E-6</v>
-      </c>
-      <c r="AK7" s="22" t="s">
+        <v>5.3520967415834096E-8</v>
+      </c>
+      <c r="AK7" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -713,47 +713,47 @@
       <c r="X8" s="3">
         <v>30</v>
       </c>
-      <c r="Z8" s="15">
-        <f t="shared" ref="Z8:Z11" si="0">T8/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
-        <f t="shared" ref="AA8:AA11" si="1">U8/SQRT(5)</f>
-        <v>11.180339887498947</v>
-      </c>
-      <c r="AB8" s="15">
-        <f t="shared" ref="AB8:AB11" si="2">V8/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="15">
-        <f t="shared" ref="AC8:AC11" si="3">W8/SQRT(5)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="15">
-        <f t="shared" ref="AD8:AD11" si="4">X8/SQRT(5)</f>
-        <v>13.416407864998737</v>
-      </c>
-      <c r="AF8" s="21">
-        <f t="shared" ref="AF8:AF11" si="5">EXP(Z8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
-        <v>1.3465628120228262E-6</v>
-      </c>
-      <c r="AG8" s="19">
-        <f t="shared" ref="AG8:AG11" si="6">EXP(AA8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
-        <v>9.6557616182561506E-2</v>
-      </c>
-      <c r="AH8" s="20">
-        <f t="shared" ref="AH8:AH11" si="7">EXP(AB8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
-        <v>1.3465628120228262E-6</v>
-      </c>
-      <c r="AI8" s="20">
-        <f t="shared" ref="AI8:AI11" si="8">EXP(AC8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
-        <v>1.3465628120228262E-6</v>
-      </c>
-      <c r="AJ8" s="20">
-        <f t="shared" ref="AJ8:AJ11" si="9">EXP(AD8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
-        <v>0.90343834412900248</v>
-      </c>
-      <c r="AK8" s="22" t="s">
+      <c r="Z8" s="23">
+        <f t="shared" ref="Z8:Z11" si="1">T8/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <f t="shared" ref="AA8:AA11" si="2">U8/SQRT(3)</f>
+        <v>14.433756729740645</v>
+      </c>
+      <c r="AB8" s="23">
+        <f t="shared" ref="AB8:AB11" si="3">V8/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="23">
+        <f t="shared" ref="AC8:AC11" si="4">W8/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="23">
+        <f t="shared" ref="AD8:AD11" si="5">X8/SQRT(3)</f>
+        <v>17.320508075688775</v>
+      </c>
+      <c r="AF8" s="20">
+        <f t="shared" ref="AF8:AF11" si="6">EXP(Z8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+        <v>2.8459999624852772E-8</v>
+      </c>
+      <c r="AG8" s="18">
+        <f t="shared" ref="AG8:AG11" si="7">EXP(AA8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+        <v>5.2812386249344985E-2</v>
+      </c>
+      <c r="AH8" s="19">
+        <f t="shared" ref="AH8:AH11" si="8">EXP(AB8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+        <v>2.8459999624852772E-8</v>
+      </c>
+      <c r="AI8" s="19">
+        <f t="shared" ref="AI8:AI11" si="9">EXP(AC8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+        <v>2.8459999624852772E-8</v>
+      </c>
+      <c r="AJ8" s="19">
+        <f t="shared" ref="AJ8:AJ11" si="10">EXP(AD8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+        <v>0.94718752837065623</v>
+      </c>
+      <c r="AK8" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="R9" s="13">
         <v>0</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="T9" s="3">
@@ -815,53 +815,53 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="15">
-        <f t="shared" si="0"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AA9" s="15">
+      <c r="Z9" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="18">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="AA9" s="23">
         <f t="shared" si="2"/>
-        <v>11.180339887498947</v>
-      </c>
-      <c r="AC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15">
+        <v>14.433756729740645</v>
+      </c>
+      <c r="AC9" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AD9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="21">
-        <f t="shared" si="5"/>
-        <v>1.2193152748181382E-3</v>
-      </c>
-      <c r="AG9" s="20">
+      <c r="AF9" s="20">
         <f t="shared" si="6"/>
-        <v>1.3928105470916778E-5</v>
-      </c>
-      <c r="AH9" s="19">
+        <v>1.7330994454588293E-4</v>
+      </c>
+      <c r="AG9" s="19">
         <f t="shared" si="7"/>
-        <v>0.998738900408769</v>
-      </c>
-      <c r="AI9" s="20">
+        <v>5.3879446172494041E-7</v>
+      </c>
+      <c r="AH9" s="18">
         <f t="shared" si="8"/>
-        <v>1.3928105470916778E-5</v>
-      </c>
-      <c r="AJ9" s="20">
+        <v>0.99982507367206896</v>
+      </c>
+      <c r="AI9" s="19">
         <f t="shared" si="9"/>
-        <v>1.3928105470916778E-5</v>
-      </c>
-      <c r="AK9" s="22" t="s">
+        <v>5.3879446172494041E-7</v>
+      </c>
+      <c r="AJ9" s="19">
+        <f t="shared" si="10"/>
+        <v>5.3879446172494041E-7</v>
+      </c>
+      <c r="AK9" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -920,47 +920,47 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="15">
-        <f t="shared" si="0"/>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="AA10" s="15">
+      <c r="Z10" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="AA10" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AB10" s="23">
         <f t="shared" si="3"/>
-        <v>1.7888543819998317</v>
-      </c>
-      <c r="AD10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="21">
+        <v>2.3094010767585034</v>
+      </c>
+      <c r="AD10" s="23">
         <f t="shared" si="5"/>
-        <v>0.90694129258332279</v>
-      </c>
-      <c r="AG10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="20">
         <f t="shared" si="6"/>
-        <v>1.0359891522653304E-2</v>
-      </c>
-      <c r="AH10" s="20">
+        <v>0.96095850415205963</v>
+      </c>
+      <c r="AG10" s="19">
         <f t="shared" si="7"/>
-        <v>1.0359891522653304E-2</v>
-      </c>
-      <c r="AI10" s="19">
+        <v>2.9874749619317937E-3</v>
+      </c>
+      <c r="AH10" s="19">
         <f t="shared" si="8"/>
-        <v>6.1979032848717287E-2</v>
-      </c>
-      <c r="AJ10" s="20">
+        <v>2.9874749619317937E-3</v>
+      </c>
+      <c r="AI10" s="18">
         <f t="shared" si="9"/>
-        <v>1.0359891522653304E-2</v>
-      </c>
-      <c r="AK10" s="22" t="s">
+        <v>3.0079070962144922E-2</v>
+      </c>
+      <c r="AJ10" s="19">
+        <f t="shared" si="10"/>
+        <v>2.9874749619317937E-3</v>
+      </c>
+      <c r="AK10" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1001,47 +1001,47 @@
       <c r="X11" s="3">
         <v>36</v>
       </c>
-      <c r="Z11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="15">
+      <c r="Z11" s="23">
         <f t="shared" si="1"/>
-        <v>13.416407864998737</v>
-      </c>
-      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="AB11" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AC11" s="23">
         <f t="shared" si="4"/>
-        <v>16.099689437998485</v>
-      </c>
-      <c r="AF11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
         <f t="shared" si="5"/>
-        <v>9.5342097419244571E-8</v>
-      </c>
-      <c r="AG11" s="20">
+        <v>20.784609690826528</v>
+      </c>
+      <c r="AF11" s="20">
         <f t="shared" si="6"/>
-        <v>6.3967091508218651E-2</v>
-      </c>
-      <c r="AH11" s="20">
+        <v>9.1195459310149687E-10</v>
+      </c>
+      <c r="AG11" s="19">
         <f t="shared" si="7"/>
-        <v>9.5342097419244571E-8</v>
-      </c>
-      <c r="AI11" s="20">
+        <v>3.0351090246387973E-2</v>
+      </c>
+      <c r="AH11" s="19">
         <f t="shared" si="8"/>
-        <v>9.5342097419244571E-8</v>
-      </c>
-      <c r="AJ11" s="19">
+        <v>9.1195459310149687E-10</v>
+      </c>
+      <c r="AI11" s="19">
         <f t="shared" si="9"/>
-        <v>0.93603262246548902</v>
-      </c>
-      <c r="AK11" s="22" t="s">
+        <v>9.1195459310149687E-10</v>
+      </c>
+      <c r="AJ11" s="18">
+        <f t="shared" si="10"/>
+        <v>0.9696489070177482</v>
+      </c>
+      <c r="AK11" s="21" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C1768E-DBAB-674D-8376-20C2557240AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2516A-B177-1C4C-961A-C836753E5C4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>=&gt;SOFTMAX by ROW</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>K^T</t>
+  </si>
+  <si>
+    <t>QK^T</t>
+  </si>
+  <si>
+    <t>QK^T / sqrt(Dk)</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -170,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -235,6 +250,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,6 +266,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653343</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3004DCC-4D87-6F4A-8372-BCB404694105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514187" y="65128"/>
+          <a:ext cx="1358900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>705555</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>159130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FB216D-EC66-0144-B8EA-B40B322F21B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19353931" y="162821"/>
+          <a:ext cx="1358900" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
-  <dimension ref="C6:AK18"/>
+  <dimension ref="C4:AQ13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,10 +674,32 @@
     <col min="20" max="24" width="5.83203125" customWidth="1"/>
     <col min="26" max="30" width="5.83203125" style="3" customWidth="1"/>
     <col min="31" max="31" width="18.33203125" customWidth="1"/>
-    <col min="32" max="36" width="10" customWidth="1"/>
+    <col min="32" max="36" width="7.83203125" customWidth="1"/>
+    <col min="37" max="37" width="8.1640625" customWidth="1"/>
+    <col min="38" max="40" width="4.83203125" customWidth="1"/>
+    <col min="41" max="43" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:43" x14ac:dyDescent="0.2">
       <c r="AF6" s="22" t="s">
         <v>4</v>
       </c>
@@ -585,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:43" x14ac:dyDescent="0.2">
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,8 +793,18 @@
       <c r="AK7" s="21" t="s">
         <v>4</v>
       </c>
+      <c r="AL7" s="24"/>
+      <c r="AO7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
       <c r="E8" t="s">
         <v>9</v>
@@ -756,8 +897,18 @@
       <c r="AK8" s="21" t="s">
         <v>5</v>
       </c>
+      <c r="AL8" s="24"/>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +1015,21 @@
       <c r="AK9" s="21" t="s">
         <v>6</v>
       </c>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -963,8 +1127,18 @@
       <c r="AK10" s="21" t="s">
         <v>7</v>
       </c>
+      <c r="AL10" s="24"/>
+      <c r="AO10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,8 +1218,18 @@
       <c r="AK11" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="AL11" s="24"/>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1248,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:43" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,23 +1260,10 @@
       </c>
       <c r="G13" s="2">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C2516A-B177-1C4C-961A-C836753E5C4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7548904-E5C5-0749-9968-B0D5F52CD5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +116,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Calibri"/>
@@ -120,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -185,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -200,6 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,14 +263,26 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,13 +306,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>119401</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>653343</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>157610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -317,15 +349,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>705555</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>162821</xdr:rowOff>
+      <xdr:colOff>493563</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>159130</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>49064</xdr:rowOff>
+      <xdr:colOff>61437</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>59918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,7 +380,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19353931" y="162821"/>
+          <a:off x="18979119" y="586154"/>
           <a:ext cx="1358900" cy="711200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -658,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
-  <dimension ref="C4:AQ13"/>
+  <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,592 +705,692 @@
     <col min="14" max="18" width="3.33203125" customWidth="1"/>
     <col min="20" max="24" width="5.83203125" customWidth="1"/>
     <col min="26" max="30" width="5.83203125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="18.33203125" customWidth="1"/>
+    <col min="31" max="31" width="22.83203125" customWidth="1"/>
     <col min="32" max="36" width="7.83203125" customWidth="1"/>
     <col min="37" max="37" width="8.1640625" customWidth="1"/>
-    <col min="38" max="40" width="4.83203125" customWidth="1"/>
-    <col min="41" max="43" width="5.6640625" customWidth="1"/>
+    <col min="38" max="39" width="4.83203125" customWidth="1"/>
+    <col min="40" max="40" width="7.33203125" customWidth="1"/>
+    <col min="41" max="41" width="7.1640625" customWidth="1"/>
+    <col min="42" max="42" width="10.83203125" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" customWidth="1"/>
+    <col min="44" max="44" width="3" customWidth="1"/>
+    <col min="45" max="45" width="6.33203125" customWidth="1"/>
+    <col min="46" max="46" width="4" customWidth="1"/>
+    <col min="50" max="50" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="AP4" t="s">
+    <row r="6" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="AP6" s="28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
+    <row r="7" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AU7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="AF6" s="22" t="s">
+    <row r="8" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="AF8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AG6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="22" t="s">
+      <c r="AG8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="22" t="s">
+      <c r="AI8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ6" s="22" t="s">
+      <c r="AJ8" s="23" t="s">
         <v>8</v>
       </c>
+      <c r="AO8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="E7" s="2" t="s">
+    <row r="9" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
         <v>29</v>
       </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
+      <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
         <v>10</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W9" s="13">
         <v>10</v>
       </c>
-      <c r="X7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="17">
-        <f>T7/SQRT(3)</f>
+      <c r="X9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="18">
+        <f>T9/SQRT(3)</f>
         <v>16.743157806499148</v>
       </c>
-      <c r="AA7" s="23">
-        <f t="shared" ref="AA7:AD7" si="0">U7/SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="23">
+      <c r="AA9" s="24">
+        <f t="shared" ref="AA9:AD9" si="0">U9/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="24">
         <f t="shared" si="0"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC9" s="24">
         <f t="shared" si="0"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD9" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="18">
-        <f>EXP(Z7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
+      <c r="AF9" s="26">
+        <f>EXP(Z9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>0.99996546158746358</v>
       </c>
-      <c r="AG7" s="19">
-        <f>EXP(AA7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
+      <c r="AG9" s="26">
+        <f>EXP(AA9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>5.3520967415834096E-8</v>
       </c>
-      <c r="AH7" s="19">
-        <f>EXP(AB7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
+      <c r="AH9" s="26">
+        <f>EXP(AB9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>1.7215685300818019E-5</v>
       </c>
-      <c r="AI7" s="19">
-        <f>EXP(AC7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
+      <c r="AI9" s="26">
+        <f>EXP(AC9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>1.7215685300818019E-5</v>
       </c>
-      <c r="AJ7" s="19">
-        <f>EXP(AD7)/(EXP(Z7)+EXP(AB7)+EXP(AC7)+EXP(AA7)+EXP(AD7))</f>
+      <c r="AJ9" s="26">
+        <f>EXP(AD9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>5.3520967415834096E-8</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="AK9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" s="24"/>
-      <c r="AO7" s="4">
-        <v>5</v>
-      </c>
-      <c r="AP7" s="4">
+      <c r="AL9" s="25"/>
+      <c r="AN9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="27">
+        <v>5</v>
+      </c>
+      <c r="AP9" s="8">
         <v>2</v>
       </c>
-      <c r="AQ7" s="4">
-        <v>0</v>
+      <c r="AQ9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="29">
+        <f>AF9*AO9+AG9*AO10+AH9*AO11+AI9*AO12+AJ9*AO13</f>
+        <v>4.9998617393079199</v>
+      </c>
+      <c r="AV9" s="21">
+        <f>AF9*AP9+AG9*AP10+AH9*AP11+AI9*AP12+AJ9*AP13</f>
+        <v>2.0000170016014311</v>
+      </c>
+      <c r="AW9" s="21">
+        <f>AF9*AQ9+AG9*AQ10+AH9*AQ11+AI9*AQ12+AJ9*AQ13</f>
+        <v>5.887306415741751E-7</v>
+      </c>
+      <c r="AX9" s="22" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D8" s="1"/>
-      <c r="E8" t="s">
+    <row r="10" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
         <v>2</v>
       </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>25</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>30</v>
       </c>
-      <c r="Z8" s="23">
-        <f t="shared" ref="Z8:Z11" si="1">T8/SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="17">
-        <f t="shared" ref="AA8:AA11" si="2">U8/SQRT(3)</f>
+      <c r="Z10" s="24">
+        <f t="shared" ref="Z10:Z13" si="1">T10/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18">
+        <f t="shared" ref="AA10:AA13" si="2">U10/SQRT(3)</f>
         <v>14.433756729740645</v>
       </c>
-      <c r="AB8" s="23">
-        <f t="shared" ref="AB8:AB11" si="3">V8/SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="23">
-        <f t="shared" ref="AC8:AC11" si="4">W8/SQRT(3)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="23">
-        <f t="shared" ref="AD8:AD11" si="5">X8/SQRT(3)</f>
+      <c r="AB10" s="24">
+        <f t="shared" ref="AB10:AB13" si="3">V10/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="24">
+        <f t="shared" ref="AC10:AC13" si="4">W10/SQRT(3)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="24">
+        <f t="shared" ref="AD10:AD13" si="5">X10/SQRT(3)</f>
         <v>17.320508075688775</v>
       </c>
-      <c r="AF8" s="20">
-        <f t="shared" ref="AF8:AF11" si="6">EXP(Z8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+      <c r="AF10" s="21">
+        <f t="shared" ref="AF10:AF13" si="6">EXP(Z10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AG8" s="18">
-        <f t="shared" ref="AG8:AG11" si="7">EXP(AA8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+      <c r="AG10" s="19">
+        <f t="shared" ref="AG10:AG13" si="7">EXP(AA10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>5.2812386249344985E-2</v>
       </c>
-      <c r="AH8" s="19">
-        <f t="shared" ref="AH8:AH11" si="8">EXP(AB8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+      <c r="AH10" s="20">
+        <f t="shared" ref="AH10:AH13" si="8">EXP(AB10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AI8" s="19">
-        <f t="shared" ref="AI8:AI11" si="9">EXP(AC8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+      <c r="AI10" s="20">
+        <f t="shared" ref="AI10:AI13" si="9">EXP(AC10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AJ8" s="19">
-        <f t="shared" ref="AJ8:AJ11" si="10">EXP(AD8)/(EXP(Z8)+EXP(AB8)+EXP(AC8)+EXP(AA8)+EXP(AD8))</f>
+      <c r="AJ10" s="20">
+        <f t="shared" ref="AJ10:AJ13" si="10">EXP(AD10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>0.94718752837065623</v>
       </c>
-      <c r="AK8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="24"/>
-      <c r="AO8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="7">
+      <c r="AK10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="25"/>
+      <c r="AN10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>5</v>
+      </c>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+    <row r="11" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N11" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15" t="s">
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T11" s="3">
         <v>10</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
         <v>25</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16" t="s">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z11" s="24">
         <f t="shared" si="1"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA11" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="17">
+      <c r="AB11" s="18">
         <f t="shared" si="3"/>
         <v>14.433756729740645</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC11" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="23">
+      <c r="AD11" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AE11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AF9" s="20">
+      <c r="AF11" s="21">
         <f t="shared" si="6"/>
         <v>1.7330994454588293E-4</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG11" s="20">
         <f t="shared" si="7"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH11" s="19">
         <f t="shared" si="8"/>
         <v>0.99982507367206896</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI11" s="20">
         <f t="shared" si="9"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ11" s="20">
         <f t="shared" si="10"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AK9" s="21" t="s">
+      <c r="AK11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="3" t="s">
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>5</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
+      <c r="AN11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU11" s="21">
+        <f>AF11*AO9+AG11*AO10+AH11*AO11+AI11*AO12+AJ11*AO13</f>
+        <v>8.6762731165286448E-4</v>
+      </c>
+      <c r="AV11" s="21">
+        <f>AF11*AP9+AG11*AP10+AH11*AP11+AI11+AP12+AJ11*AP13</f>
+        <v>4.9994725270438982</v>
+      </c>
+      <c r="AW11" s="21">
+        <f>AF11*AQ9+AG11*AQ10+AH11*AQ11+AI11*AQ12+AJ11*AQ13</f>
+        <v>5.9267390789743446E-6</v>
+      </c>
+      <c r="AX11" s="22" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
+    <row r="12" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
         <v>6</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T12" s="3">
         <v>10</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="23">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="24">
         <f t="shared" si="1"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AA10" s="23">
+      <c r="AA12" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="23">
+      <c r="AB12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC12" s="18">
         <f t="shared" si="4"/>
         <v>2.3094010767585034</v>
       </c>
-      <c r="AD10" s="23">
+      <c r="AD12" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="20">
+      <c r="AF12" s="21">
         <f t="shared" si="6"/>
         <v>0.96095850415205963</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG12" s="20">
         <f t="shared" si="7"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AH10" s="19">
+      <c r="AH12" s="20">
         <f t="shared" si="8"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI12" s="19">
         <f t="shared" si="9"/>
         <v>3.0079070962144922E-2</v>
       </c>
-      <c r="AJ10" s="19">
+      <c r="AJ12" s="20">
         <f t="shared" si="10"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AK10" s="21" t="s">
+      <c r="AK12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AL10" s="24"/>
-      <c r="AO10" s="2">
+      <c r="AL12" s="25"/>
+      <c r="AN12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO12" s="27">
         <v>2</v>
       </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>0</v>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="22" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
+    <row r="13" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
         <v>6</v>
       </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
         <v>30</v>
       </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
         <v>36</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z13" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="23">
+      <c r="AA13" s="24">
         <f t="shared" si="2"/>
         <v>17.320508075688775</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB13" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC13" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AD13" s="18">
         <f t="shared" si="5"/>
         <v>20.784609690826528</v>
       </c>
-      <c r="AF11" s="20">
+      <c r="AF13" s="21">
         <f t="shared" si="6"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AG11" s="19">
+      <c r="AG13" s="20">
         <f t="shared" si="7"/>
         <v>3.0351090246387973E-2</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AH13" s="20">
         <f t="shared" si="8"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AI13" s="20">
         <f t="shared" si="9"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ13" s="19">
         <f t="shared" si="10"/>
         <v>0.9696489070177482</v>
       </c>
-      <c r="AK11" s="21" t="s">
+      <c r="AK13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AL11" s="24"/>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
+      <c r="AL13" s="25"/>
+      <c r="AN13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
         <v>6</v>
       </c>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
+    <row r="14" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
     </row>
-    <row r="13" spans="3:43" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
+    <row r="15" spans="3:50" x14ac:dyDescent="0.2">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>6</v>
       </c>
     </row>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7548904-E5C5-0749-9968-B0D5F52CD5BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6958B4-7C68-1249-B059-8B8FD604677C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -281,6 +281,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,7 +696,7 @@
   <dimension ref="C6:AX15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+      <selection activeCell="AT16" sqref="AT16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,13 +740,13 @@
       <c r="AB7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AV7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -763,22 +766,22 @@
       <c r="AJ8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AO8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="3" t="s">
+      <c r="AP8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="3" t="s">
+      <c r="AQ8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AU8" s="3" t="s">
+      <c r="AU8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AV8" s="3" t="s">
+      <c r="AV8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="AW8" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -994,9 +997,18 @@
       <c r="AQ10" s="8">
         <v>5</v>
       </c>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
+      <c r="AU10" s="21">
+        <f>AF10*AO9+AG10*AO10+AH10*AO11+AI10*AO12+AJ10+AO13</f>
+        <v>0.94718772759065362</v>
+      </c>
+      <c r="AV10" s="21">
+        <f>AF10*AP9+AG10*AP10+AH10*AP11+AI10*AP12+AJ10*AP13</f>
+        <v>1.9921999737396938E-7</v>
+      </c>
+      <c r="AW10" s="21">
+        <f>AF10*AQ9+AG10*AQ10+AH10*AQ11+AI10*AQ12+AJ10*AQ13</f>
+        <v>5.9471871014706625</v>
+      </c>
       <c r="AX10" s="22" t="s">
         <v>5</v>
       </c>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6958B4-7C68-1249-B059-8B8FD604677C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9975F5-53FA-0040-B4A2-E7F97DC48F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,13 +260,13 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -271,7 +277,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,10 +286,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +708,7 @@
   <dimension ref="C6:AX15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AT16" sqref="AT16"/>
+      <selection activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +1006,7 @@
       <c r="AP10" s="8">
         <v>0</v>
       </c>
-      <c r="AQ10" s="8">
+      <c r="AQ10" s="32">
         <v>5</v>
       </c>
       <c r="AU10" s="21">
@@ -1005,7 +1017,7 @@
         <f>AF10*AP9+AG10*AP10+AH10*AP11+AI10*AP12+AJ10*AP13</f>
         <v>1.9921999737396938E-7</v>
       </c>
-      <c r="AW10" s="21">
+      <c r="AW10" s="31">
         <f>AF10*AQ9+AG10*AQ10+AH10*AQ11+AI10*AQ12+AJ10*AQ13</f>
         <v>5.9471871014706625</v>
       </c>
@@ -1266,9 +1278,18 @@
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
+      <c r="AU12" s="21">
+        <f>AF12*AO9+AG12*AO10+AH12*AO11+AI12*AO12+AJ12*AO13</f>
+        <v>4.8649506626845875</v>
+      </c>
+      <c r="AV12" s="20">
+        <f>AF12*AP9+AG12*AP10+AH12*AP11+AI12*AP12+AJ12*AP13</f>
+        <v>1.9368543831137783</v>
+      </c>
+      <c r="AW12" s="20">
+        <f>AF12*AQ9+AG12*AQ10+AH12*AQ11+AI12*AQ12+AJ12*AQ13</f>
+        <v>3.2862224581249731E-2</v>
+      </c>
       <c r="AX12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1366,9 +1387,18 @@
       <c r="AQ13" s="2">
         <v>6</v>
       </c>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
+      <c r="AU13" s="21">
+        <f>AF13*AO9+AG13*AO10+AH13*AO11+AI13*AO12+AJ13*AO13</f>
+        <v>6.3836821517104787E-9</v>
+      </c>
+      <c r="AV13" s="20">
+        <f>AF13*AP9+AG13*AP10+AH13*AP11+AI13*AP12+AJ13*AP13</f>
+        <v>6.3836821517104787E-9</v>
+      </c>
+      <c r="AW13" s="20">
+        <f>AF13*AQ9+AG13*AQ10+AH13+AQ11+AI13*AQ12+AJ13*AQ13</f>
+        <v>5.9696488942503834</v>
+      </c>
       <c r="AX13" s="22" t="s">
         <v>8</v>
       </c>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9975F5-53FA-0040-B4A2-E7F97DC48F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D2923-F407-2248-8A65-81F25473F060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D2923-F407-2248-8A65-81F25473F060}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C7690-F2DB-9048-8B2B-C7DBAA416284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>KEYS</t>
+  </si>
+  <si>
+    <t>QUERIES</t>
   </si>
 </sst>
 </file>
@@ -116,16 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,11 +210,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -269,33 +284,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -365,14 +386,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>493563</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>173675</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>61437</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>59918</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -395,8 +416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18979119" y="586154"/>
-          <a:ext cx="1358900" cy="711200"/>
+          <a:off x="19327393" y="380840"/>
+          <a:ext cx="1351278" cy="714896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -707,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="AW14" sqref="AW14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="AM19" sqref="AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +744,8 @@
     <col min="31" max="31" width="22.83203125" customWidth="1"/>
     <col min="32" max="36" width="7.83203125" customWidth="1"/>
     <col min="37" max="37" width="8.1640625" customWidth="1"/>
-    <col min="38" max="39" width="4.83203125" customWidth="1"/>
+    <col min="38" max="38" width="3.6640625" customWidth="1"/>
+    <col min="39" max="39" width="6.83203125" customWidth="1"/>
     <col min="40" max="40" width="7.33203125" customWidth="1"/>
     <col min="41" max="41" width="7.1640625" customWidth="1"/>
     <col min="42" max="42" width="10.83203125" customWidth="1"/>
@@ -734,8 +756,8 @@
     <col min="50" max="50" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="AP6" s="28" t="s">
+    <row r="6" spans="3:50" ht="31" x14ac:dyDescent="0.35">
+      <c r="AP6" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,6 +774,9 @@
       <c r="AB7" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AH7" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="AU7" s="23" t="s">
         <v>1</v>
       </c>
@@ -778,13 +803,13 @@
       <c r="AJ8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AO8" s="30" t="s">
+      <c r="AO8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="30" t="s">
+      <c r="AP8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="30" t="s">
+      <c r="AQ8" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AU8" s="23" t="s">
@@ -887,7 +912,7 @@
       <c r="AQ9" s="8">
         <v>0</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AU9" s="28">
         <f>AF9*AO9+AG9*AO10+AH9*AO11+AI9*AO12+AJ9*AO13</f>
         <v>4.9998617393079199</v>
       </c>
@@ -996,7 +1021,9 @@
       <c r="AK10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="25"/>
+      <c r="AL10" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="AN10" s="22" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1033,7 @@
       <c r="AP10" s="8">
         <v>0</v>
       </c>
-      <c r="AQ10" s="32">
+      <c r="AQ10" s="31">
         <v>5</v>
       </c>
       <c r="AU10" s="21">
@@ -1017,7 +1044,7 @@
         <f>AF10*AP9+AG10*AP10+AH10*AP11+AI10*AP12+AJ10*AP13</f>
         <v>1.9921999737396938E-7</v>
       </c>
-      <c r="AW10" s="31">
+      <c r="AW10" s="30">
         <f>AF10*AQ9+AG10*AQ10+AH10*AQ11+AI10*AQ12+AJ10*AQ13</f>
         <v>5.9471871014706625</v>
       </c>
@@ -1025,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1159,7 @@
       <c r="AK11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AL11" s="25"/>
+      <c r="AL11" s="33"/>
       <c r="AM11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1292,7 @@
       <c r="AK12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="25"/>
+      <c r="AL12" s="33"/>
       <c r="AN12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1437,6 +1464,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AL10:AL12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C7690-F2DB-9048-8B2B-C7DBAA416284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A039B-AC56-F849-BB02-7899056BBEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
+    <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" activeTab="1" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attention" sheetId="1" r:id="rId1"/>
+    <sheet name="Masked Attention" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -66,9 +67,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>=&gt;</t>
-  </si>
-  <si>
     <t>=&gt; SCALED</t>
   </si>
   <si>
@@ -97,6 +95,24 @@
   </si>
   <si>
     <t>QUERIES</t>
+  </si>
+  <si>
+    <t>=&gt; similarities</t>
+  </si>
+  <si>
+    <t>-Inf</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Before Softmax</t>
+  </si>
+  <si>
+    <t>MASKING &gt;&gt;</t>
+  </si>
+  <si>
+    <t>SOFTMAX &gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -106,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +148,42 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -310,13 +362,42 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="AM19" sqref="AM19"/>
+    <sheetView showGridLines="0" topLeftCell="Y1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,6 +820,7 @@
     <col min="7" max="7" width="9.1640625" customWidth="1"/>
     <col min="10" max="12" width="5.5" customWidth="1"/>
     <col min="14" max="18" width="3.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
     <col min="20" max="24" width="5.83203125" customWidth="1"/>
     <col min="26" max="30" width="5.83203125" style="3" customWidth="1"/>
     <col min="31" max="31" width="22.83203125" customWidth="1"/>
@@ -757,25 +839,26 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:50" ht="31" x14ac:dyDescent="0.35">
-      <c r="AP6" s="34" t="s">
-        <v>20</v>
+      <c r="AP6" s="32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="3:50" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>17</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" s="33"/>
+      <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AH7" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU7" s="23" t="s">
         <v>1</v>
@@ -1021,8 +1104,8 @@
       <c r="AK10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="32" t="s">
-        <v>23</v>
+      <c r="AL10" s="34" t="s">
+        <v>22</v>
       </c>
       <c r="AN10" s="22" t="s">
         <v>5</v>
@@ -1093,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="T11" s="3">
         <v>10</v>
@@ -1111,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z11" s="24">
         <f t="shared" si="1"/>
@@ -1134,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF11" s="21">
         <f t="shared" si="6"/>
@@ -1159,7 +1242,7 @@
       <c r="AK11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AL11" s="33"/>
+      <c r="AL11" s="35"/>
       <c r="AM11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU11" s="21">
         <f>AF11*AO9+AG11*AO10+AH11*AO11+AI11*AO12+AJ11*AO13</f>
@@ -1292,7 +1375,7 @@
       <c r="AK12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="33"/>
+      <c r="AL12" s="35"/>
       <c r="AN12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1470,4 +1553,370 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A58314-04D8-1547-8CD4-98ACE68C2B0F}">
+  <dimension ref="B8:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="16" width="7.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="24" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D10" s="38">
+        <v>16.743157806499148</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="G10" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
+        <v>14.433756729740645</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>17.320508075688775</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D12" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38">
+        <v>14.433756729740645</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D13" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <v>2.3094010767585034</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <v>16.743157806499148</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="30">
+        <v>1</v>
+      </c>
+      <c r="U13" s="44">
+        <v>0</v>
+      </c>
+      <c r="V13" s="44">
+        <v>0</v>
+      </c>
+      <c r="W13" s="44">
+        <v>0</v>
+      </c>
+      <c r="X13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="36">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="38">
+        <v>20.784609690826528</v>
+      </c>
+      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="38">
+        <v>14.433756729740645</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="44">
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <v>1</v>
+      </c>
+      <c r="V14" s="44">
+        <v>0</v>
+      </c>
+      <c r="W14" s="44">
+        <v>0</v>
+      </c>
+      <c r="X14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="L15" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="38">
+        <v>14.433756729740645</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="U15" s="44">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
+        <v>1</v>
+      </c>
+      <c r="W15" s="44">
+        <v>0</v>
+      </c>
+      <c r="X15" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="36">
+        <v>5.7735026918962582</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="36">
+        <v>0</v>
+      </c>
+      <c r="O16" s="38">
+        <v>2.3094010767585034</v>
+      </c>
+      <c r="P16" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="20">
+        <v>0.96</v>
+      </c>
+      <c r="U16" s="20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V16" s="20">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="X16" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="N17" s="36">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <v>20.784609690826528</v>
+      </c>
+      <c r="T17" s="44">
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="V17" s="44">
+        <v>0</v>
+      </c>
+      <c r="W17" s="44">
+        <v>0</v>
+      </c>
+      <c r="X17" s="30">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2A039B-AC56-F849-BB02-7899056BBEE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD172A2D-F440-A346-A7CC-2C6C26EC150C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" activeTab="1" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
+    <workbookView xWindow="10500" yWindow="5900" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
   <sheets>
     <sheet name="Attention" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Y1" zoomScale="141" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScale="141" workbookViewId="0">
       <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A58314-04D8-1547-8CD4-98ACE68C2B0F}">
   <dimension ref="B8:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD172A2D-F440-A346-A7CC-2C6C26EC150C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202B0EB-E16A-BA44-9E1A-5EF5D5C59C62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="5900" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
+    <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
   <sheets>
     <sheet name="Attention" sheetId="1" r:id="rId1"/>
@@ -366,12 +366,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,6 +393,12 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScale="141" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
       <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH7" s="29" t="s">
+      <c r="AH7" s="44" t="s">
         <v>21</v>
       </c>
       <c r="AU7" s="23" t="s">
@@ -1104,7 +1104,7 @@
       <c r="AK10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="34" t="s">
+      <c r="AL10" s="45" t="s">
         <v>22</v>
       </c>
       <c r="AN10" s="22" t="s">
@@ -1242,7 +1242,7 @@
       <c r="AK11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AL11" s="35"/>
+      <c r="AL11" s="45"/>
       <c r="AM11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="AK12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="35"/>
+      <c r="AL12" s="45"/>
       <c r="AN12" s="22" t="s">
         <v>7</v>
       </c>
@@ -1580,207 +1580,207 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>16.743157806499148</v>
       </c>
-      <c r="E10" s="36">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="E10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
         <v>14.433756729740645</v>
       </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36">
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
         <v>17.320508075688775</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
         <v>14.433756729740645</v>
       </c>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36">
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
         <v>2.3094010767585034</v>
       </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36">
         <v>16.743157806499148</v>
       </c>
-      <c r="M13" s="41" t="s">
+      <c r="M13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="39" t="s">
         <v>24</v>
       </c>
       <c r="T13" s="30">
         <v>1</v>
       </c>
-      <c r="U13" s="44">
-        <v>0</v>
-      </c>
-      <c r="V13" s="44">
-        <v>0</v>
-      </c>
-      <c r="W13" s="44">
-        <v>0</v>
-      </c>
-      <c r="X13" s="44">
+      <c r="U13" s="42">
+        <v>0</v>
+      </c>
+      <c r="V13" s="42">
+        <v>0</v>
+      </c>
+      <c r="W13" s="42">
+        <v>0</v>
+      </c>
+      <c r="X13" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D14" s="36">
-        <v>0</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34">
         <v>17.320508075688775</v>
       </c>
-      <c r="F14" s="36">
-        <v>0</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
         <v>20.784609690826528</v>
       </c>
-      <c r="L14" s="36">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
+      <c r="L14" s="34">
+        <v>0</v>
+      </c>
+      <c r="M14" s="36">
         <v>14.433756729740645</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="44">
+      <c r="T14" s="42">
         <v>0</v>
       </c>
       <c r="U14" s="30">
         <v>1</v>
       </c>
-      <c r="V14" s="44">
-        <v>0</v>
-      </c>
-      <c r="W14" s="44">
-        <v>0</v>
-      </c>
-      <c r="X14" s="44">
+      <c r="V14" s="42">
+        <v>0</v>
+      </c>
+      <c r="W14" s="42">
+        <v>0</v>
+      </c>
+      <c r="X14" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L15" s="36">
+      <c r="L15" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="M15" s="36">
-        <v>0</v>
-      </c>
-      <c r="N15" s="38">
+      <c r="M15" s="34">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
         <v>14.433756729740645</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="43">
         <v>1E-3</v>
       </c>
-      <c r="U15" s="44">
+      <c r="U15" s="42">
         <v>0</v>
       </c>
       <c r="V15" s="30">
         <v>1</v>
       </c>
-      <c r="W15" s="44">
-        <v>0</v>
-      </c>
-      <c r="X15" s="44">
+      <c r="W15" s="42">
+        <v>0</v>
+      </c>
+      <c r="X15" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="34">
         <v>5.7735026918962582</v>
       </c>
-      <c r="M16" s="36">
-        <v>0</v>
-      </c>
-      <c r="N16" s="36">
-        <v>0</v>
-      </c>
-      <c r="O16" s="38">
+      <c r="M16" s="34">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="36">
         <v>2.3094010767585034</v>
       </c>
-      <c r="P16" s="41" t="s">
+      <c r="P16" s="39" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="20">
@@ -1795,36 +1795,36 @@
       <c r="W16" s="30">
         <v>0.03</v>
       </c>
-      <c r="X16" s="44">
+      <c r="X16" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="L17" s="36">
-        <v>0</v>
-      </c>
-      <c r="M17" s="36">
+      <c r="L17" s="34">
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
         <v>17.320508075688775</v>
       </c>
-      <c r="N17" s="36">
-        <v>0</v>
-      </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="38">
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <v>0</v>
+      </c>
+      <c r="P17" s="36">
         <v>20.784609690826528</v>
       </c>
-      <c r="T17" s="44">
+      <c r="T17" s="42">
         <v>0</v>
       </c>
       <c r="U17" s="20">
         <v>0.03</v>
       </c>
-      <c r="V17" s="44">
-        <v>0</v>
-      </c>
-      <c r="W17" s="44">
+      <c r="V17" s="42">
+        <v>0</v>
+      </c>
+      <c r="W17" s="42">
         <v>0</v>
       </c>
       <c r="X17" s="30">
@@ -1832,19 +1832,19 @@
       </c>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1852,16 +1852,16 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H19" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1872,13 +1872,13 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1892,10 +1892,10 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <v>1</v>
       </c>
     </row>

--- a/Transformers/img/tables.xlsx
+++ b/Transformers/img/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Projects_mix/teaching_content/Transformers/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F202B0EB-E16A-BA44-9E1A-5EF5D5C59C62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069FBC1-72DD-314B-8862-25F2D7295061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2300" windowWidth="25100" windowHeight="15700" xr2:uid="{8FF7F3CF-775C-0C44-A0FB-888F58045653}"/>
   </bookViews>
@@ -119,8 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -275,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -327,13 +328,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -344,13 +339,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,6 +388,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,8 +478,8 @@
       <xdr:rowOff>173677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>61437</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>412955</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>59920</xdr:rowOff>
     </xdr:to>
@@ -809,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C51B5F-EC43-EF4D-B509-AFA3707B82CB}">
   <dimension ref="C6:AX15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +831,7 @@
     <col min="20" max="24" width="5.83203125" customWidth="1"/>
     <col min="26" max="30" width="5.83203125" style="3" customWidth="1"/>
     <col min="31" max="31" width="22.83203125" customWidth="1"/>
-    <col min="32" max="36" width="7.83203125" customWidth="1"/>
+    <col min="32" max="36" width="9.5" customWidth="1"/>
     <col min="37" max="37" width="8.1640625" customWidth="1"/>
     <col min="38" max="38" width="3.6640625" customWidth="1"/>
     <col min="39" max="39" width="6.83203125" customWidth="1"/>
@@ -839,7 +846,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:50" ht="31" x14ac:dyDescent="0.35">
-      <c r="AP6" s="32" t="s">
+      <c r="AP6" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -853,55 +860,55 @@
       <c r="U7" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="33"/>
+      <c r="V7" s="29"/>
       <c r="AB7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH7" s="44" t="s">
+      <c r="AH7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AU7" s="23" t="s">
+      <c r="AU7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AV7" s="23" t="s">
+      <c r="AV7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AW7" s="23" t="s">
+      <c r="AW7" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="AF8" s="23" t="s">
+      <c r="AF8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG8" s="23" t="s">
+      <c r="AG8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH8" s="23" t="s">
+      <c r="AH8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="23" t="s">
+      <c r="AI8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AJ8" s="23" t="s">
+      <c r="AJ8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AO8" s="29" t="s">
+      <c r="AO8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AP8" s="29" t="s">
+      <c r="AP8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="29" t="s">
+      <c r="AQ8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AU8" s="23" t="s">
+      <c r="AU8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AV8" s="23" t="s">
+      <c r="AV8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AW8" s="23" t="s">
+      <c r="AW8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -943,50 +950,50 @@
         <f>T9/SQRT(3)</f>
         <v>16.743157806499148</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="22">
         <f t="shared" ref="AA9:AD9" si="0">U9/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="22">
         <f t="shared" si="0"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="22">
         <f t="shared" si="0"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF9" s="42">
         <f>EXP(Z9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>0.99996546158746358</v>
       </c>
-      <c r="AG9" s="26">
+      <c r="AG9" s="42">
         <f>EXP(AA9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>5.3520967415834096E-8</v>
       </c>
-      <c r="AH9" s="26">
+      <c r="AH9" s="42">
         <f>EXP(AB9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>1.7215685300818019E-5</v>
       </c>
-      <c r="AI9" s="26">
+      <c r="AI9" s="42">
         <f>EXP(AC9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>1.7215685300818019E-5</v>
       </c>
-      <c r="AJ9" s="26">
+      <c r="AJ9" s="42">
         <f>EXP(AD9)/(EXP(Z9)+EXP(AB9)+EXP(AC9)+EXP(AA9)+EXP(AD9))</f>
         <v>5.3520967415834096E-8</v>
       </c>
-      <c r="AK9" s="22" t="s">
+      <c r="AK9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AL9" s="25"/>
-      <c r="AN9" s="22" t="s">
+      <c r="AL9" s="23"/>
+      <c r="AN9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AO9" s="27">
+      <c r="AO9" s="24">
         <v>5</v>
       </c>
       <c r="AP9" s="8">
@@ -995,19 +1002,19 @@
       <c r="AQ9" s="8">
         <v>0</v>
       </c>
-      <c r="AU9" s="28">
+      <c r="AU9" s="46">
         <f>AF9*AO9+AG9*AO10+AH9*AO11+AI9*AO12+AJ9*AO13</f>
         <v>4.9998617393079199</v>
       </c>
-      <c r="AV9" s="21">
+      <c r="AV9" s="43">
         <f>AF9*AP9+AG9*AP10+AH9*AP11+AI9*AP12+AJ9*AP13</f>
         <v>2.0000170016014311</v>
       </c>
-      <c r="AW9" s="21">
+      <c r="AW9" s="43">
         <f>AF9*AQ9+AG9*AQ10+AH9*AQ11+AI9*AQ12+AJ9*AQ13</f>
         <v>5.887306415741751E-7</v>
       </c>
-      <c r="AX9" s="22" t="s">
+      <c r="AX9" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1061,7 +1068,7 @@
       <c r="X10" s="3">
         <v>30</v>
       </c>
-      <c r="Z10" s="24">
+      <c r="Z10" s="22">
         <f t="shared" ref="Z10:Z13" si="1">T10/SQRT(3)</f>
         <v>0</v>
       </c>
@@ -1069,69 +1076,69 @@
         <f t="shared" ref="AA10:AA13" si="2">U10/SQRT(3)</f>
         <v>14.433756729740645</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="22">
         <f t="shared" ref="AB10:AB13" si="3">V10/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="22">
         <f t="shared" ref="AC10:AC13" si="4">W10/SQRT(3)</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="22">
         <f t="shared" ref="AD10:AD13" si="5">X10/SQRT(3)</f>
         <v>17.320508075688775</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AF10" s="43">
         <f t="shared" ref="AF10:AF13" si="6">EXP(Z10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AG10" s="19">
+      <c r="AG10" s="44">
         <f t="shared" ref="AG10:AG13" si="7">EXP(AA10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>5.2812386249344985E-2</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AH10" s="45">
         <f t="shared" ref="AH10:AH13" si="8">EXP(AB10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AI10" s="45">
         <f t="shared" ref="AI10:AI13" si="9">EXP(AC10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>2.8459999624852772E-8</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AJ10" s="45">
         <f t="shared" ref="AJ10:AJ13" si="10">EXP(AD10)/(EXP(Z10)+EXP(AB10)+EXP(AC10)+EXP(AA10)+EXP(AD10))</f>
         <v>0.94718752837065623</v>
       </c>
-      <c r="AK10" s="22" t="s">
+      <c r="AK10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AL10" s="45" t="s">
+      <c r="AL10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AN10" s="22" t="s">
+      <c r="AN10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AO10" s="27">
+      <c r="AO10" s="24">
         <v>0</v>
       </c>
       <c r="AP10" s="8">
         <v>0</v>
       </c>
-      <c r="AQ10" s="31">
+      <c r="AQ10" s="27">
         <v>5</v>
       </c>
-      <c r="AU10" s="21">
+      <c r="AU10" s="43">
         <f>AF10*AO9+AG10*AO10+AH10*AO11+AI10*AO12+AJ10+AO13</f>
         <v>0.94718772759065362</v>
       </c>
-      <c r="AV10" s="21">
+      <c r="AV10" s="43">
         <f>AF10*AP9+AG10*AP10+AH10*AP11+AI10*AP12+AJ10*AP13</f>
         <v>1.9921999737396938E-7</v>
       </c>
-      <c r="AW10" s="30">
+      <c r="AW10" s="47">
         <f>AF10*AQ9+AG10*AQ10+AH10*AQ11+AI10*AQ12+AJ10*AQ13</f>
         <v>5.9471871014706625</v>
       </c>
-      <c r="AX10" s="22" t="s">
+      <c r="AX10" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1196,11 +1203,11 @@
       <c r="Y11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="24">
+      <c r="Z11" s="22">
         <f t="shared" si="1"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1208,48 +1215,48 @@
         <f t="shared" si="3"/>
         <v>14.433756729740645</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AF11" s="43">
         <f t="shared" si="6"/>
         <v>1.7330994454588293E-4</v>
       </c>
-      <c r="AG11" s="20">
+      <c r="AG11" s="45">
         <f t="shared" si="7"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AH11" s="19">
+      <c r="AH11" s="44">
         <f t="shared" si="8"/>
         <v>0.99982507367206896</v>
       </c>
-      <c r="AI11" s="20">
+      <c r="AI11" s="45">
         <f t="shared" si="9"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AJ11" s="20">
+      <c r="AJ11" s="45">
         <f t="shared" si="10"/>
         <v>5.3879446172494041E-7</v>
       </c>
-      <c r="AK11" s="22" t="s">
+      <c r="AK11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AL11" s="45"/>
+      <c r="AL11" s="41"/>
       <c r="AM11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AN11" s="22" t="s">
+      <c r="AN11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AO11" s="24">
         <v>0</v>
       </c>
       <c r="AP11" s="2">
@@ -1261,19 +1268,19 @@
       <c r="AS11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AU11" s="21">
+      <c r="AU11" s="43">
         <f>AF11*AO9+AG11*AO10+AH11*AO11+AI11*AO12+AJ11*AO13</f>
         <v>8.6762731165286448E-4</v>
       </c>
-      <c r="AV11" s="21">
+      <c r="AV11" s="43">
         <f>AF11*AP9+AG11*AP10+AH11*AP11+AI11+AP12+AJ11*AP13</f>
         <v>4.9994725270438982</v>
       </c>
-      <c r="AW11" s="21">
+      <c r="AW11" s="43">
         <f>AF11*AQ9+AG11*AQ10+AH11*AQ11+AI11*AQ12+AJ11*AQ13</f>
         <v>5.9267390789743446E-6</v>
       </c>
-      <c r="AX11" s="22" t="s">
+      <c r="AX11" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1332,15 +1339,15 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="Z12" s="22">
         <f t="shared" si="1"/>
         <v>5.7735026918962582</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AA12" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1348,38 +1355,38 @@
         <f t="shared" si="4"/>
         <v>2.3094010767585034</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AF12" s="43">
         <f t="shared" si="6"/>
         <v>0.96095850415205963</v>
       </c>
-      <c r="AG12" s="20">
+      <c r="AG12" s="45">
         <f t="shared" si="7"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AH12" s="20">
+      <c r="AH12" s="45">
         <f t="shared" si="8"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AI12" s="44">
         <f t="shared" si="9"/>
         <v>3.0079070962144922E-2</v>
       </c>
-      <c r="AJ12" s="20">
+      <c r="AJ12" s="45">
         <f t="shared" si="10"/>
         <v>2.9874749619317937E-3</v>
       </c>
-      <c r="AK12" s="22" t="s">
+      <c r="AK12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AL12" s="45"/>
-      <c r="AN12" s="22" t="s">
+      <c r="AL12" s="41"/>
+      <c r="AN12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AO12" s="27">
+      <c r="AO12" s="24">
         <v>2</v>
       </c>
       <c r="AP12" s="2">
@@ -1388,19 +1395,19 @@
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
-      <c r="AU12" s="21">
+      <c r="AU12" s="43">
         <f>AF12*AO9+AG12*AO10+AH12*AO11+AI12*AO12+AJ12*AO13</f>
         <v>4.8649506626845875</v>
       </c>
-      <c r="AV12" s="20">
+      <c r="AV12" s="45">
         <f>AF12*AP9+AG12*AP10+AH12*AP11+AI12*AP12+AJ12*AP13</f>
         <v>1.9368543831137783</v>
       </c>
-      <c r="AW12" s="20">
+      <c r="AW12" s="45">
         <f>AF12*AQ9+AG12*AQ10+AH12*AQ11+AI12*AQ12+AJ12*AQ13</f>
         <v>3.2862224581249731E-2</v>
       </c>
-      <c r="AX12" s="22" t="s">
+      <c r="AX12" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1441,19 +1448,19 @@
       <c r="X13" s="3">
         <v>36</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AA13" s="22">
         <f t="shared" si="2"/>
         <v>17.320508075688775</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1461,34 +1468,34 @@
         <f t="shared" si="5"/>
         <v>20.784609690826528</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AF13" s="43">
         <f t="shared" si="6"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AG13" s="20">
+      <c r="AG13" s="45">
         <f t="shared" si="7"/>
         <v>3.0351090246387973E-2</v>
       </c>
-      <c r="AH13" s="20">
+      <c r="AH13" s="45">
         <f t="shared" si="8"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AI13" s="20">
+      <c r="AI13" s="45">
         <f t="shared" si="9"/>
         <v>9.1195459310149687E-10</v>
       </c>
-      <c r="AJ13" s="19">
+      <c r="AJ13" s="44">
         <f t="shared" si="10"/>
         <v>0.9696489070177482</v>
       </c>
-      <c r="AK13" s="22" t="s">
+      <c r="AK13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AL13" s="25"/>
-      <c r="AN13" s="22" t="s">
+      <c r="AL13" s="23"/>
+      <c r="AN13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AO13" s="27">
+      <c r="AO13" s="24">
         <v>0</v>
       </c>
       <c r="AP13" s="2">
@@ -1497,19 +1504,19 @@
       <c r="AQ13" s="2">
         <v>6</v>
       </c>
-      <c r="AU13" s="21">
+      <c r="AU13" s="43">
         <f>AF13*AO9+AG13*AO10+AH13*AO11+AI13*AO12+AJ13*AO13</f>
         <v>6.3836821517104787E-9</v>
       </c>
-      <c r="AV13" s="20">
+      <c r="AV13" s="45">
         <f>AF13*AP9+AG13*AP10+AH13*AP11+AI13*AP12+AJ13*AP13</f>
         <v>6.3836821517104787E-9</v>
       </c>
-      <c r="AW13" s="20">
+      <c r="AW13" s="45">
         <f>AF13*AQ9+AG13*AQ10+AH13+AQ11+AI13*AQ12+AJ13*AQ13</f>
         <v>5.9696488942503834</v>
       </c>
-      <c r="AX13" s="22" t="s">
+      <c r="AX13" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1551,6 +1558,7 @@
     <mergeCell ref="AL10:AL12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1580,271 +1588,271 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <v>16.743157806499148</v>
       </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
         <v>14.433756729740645</v>
       </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
         <v>17.320508075688775</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D12" s="34">
+      <c r="D12" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
         <v>14.433756729740645</v>
       </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
         <v>2.3094010767585034</v>
       </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="L13" s="36">
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32">
         <v>16.743157806499148</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="30">
+      <c r="T13" s="26">
         <v>1</v>
       </c>
-      <c r="U13" s="42">
-        <v>0</v>
-      </c>
-      <c r="V13" s="42">
-        <v>0</v>
-      </c>
-      <c r="W13" s="42">
-        <v>0</v>
-      </c>
-      <c r="X13" s="42">
+      <c r="U13" s="38">
+        <v>0</v>
+      </c>
+      <c r="V13" s="38">
+        <v>0</v>
+      </c>
+      <c r="W13" s="38">
+        <v>0</v>
+      </c>
+      <c r="X13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
         <v>17.320508075688775</v>
       </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
         <v>20.784609690826528</v>
       </c>
-      <c r="L14" s="34">
-        <v>0</v>
-      </c>
-      <c r="M14" s="36">
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="32">
         <v>14.433756729740645</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="42">
-        <v>0</v>
-      </c>
-      <c r="U14" s="30">
+      <c r="T14" s="38">
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
         <v>1</v>
       </c>
-      <c r="V14" s="42">
-        <v>0</v>
-      </c>
-      <c r="W14" s="42">
-        <v>0</v>
-      </c>
-      <c r="X14" s="42">
+      <c r="V14" s="38">
+        <v>0</v>
+      </c>
+      <c r="W14" s="38">
+        <v>0</v>
+      </c>
+      <c r="X14" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L15" s="34">
+      <c r="L15" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="M15" s="34">
-        <v>0</v>
-      </c>
-      <c r="N15" s="36">
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
         <v>14.433756729740645</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="43">
+      <c r="T15" s="39">
         <v>1E-3</v>
       </c>
-      <c r="U15" s="42">
-        <v>0</v>
-      </c>
-      <c r="V15" s="30">
+      <c r="U15" s="38">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
         <v>1</v>
       </c>
-      <c r="W15" s="42">
-        <v>0</v>
-      </c>
-      <c r="X15" s="42">
+      <c r="W15" s="38">
+        <v>0</v>
+      </c>
+      <c r="X15" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="30">
         <v>5.7735026918962582</v>
       </c>
-      <c r="M16" s="34">
-        <v>0</v>
-      </c>
-      <c r="N16" s="34">
-        <v>0</v>
-      </c>
-      <c r="O16" s="36">
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
         <v>2.3094010767585034</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="19">
         <v>0.96</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="26">
         <v>0.03</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="L17" s="34">
-        <v>0</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
         <v>17.320508075688775</v>
       </c>
-      <c r="N17" s="34">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34">
-        <v>0</v>
-      </c>
-      <c r="P17" s="36">
+      <c r="N17" s="30">
+        <v>0</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
         <v>20.784609690826528</v>
       </c>
-      <c r="T17" s="42">
-        <v>0</v>
-      </c>
-      <c r="U17" s="20">
+      <c r="T17" s="38">
+        <v>0</v>
+      </c>
+      <c r="U17" s="19">
         <v>0.03</v>
       </c>
-      <c r="V17" s="42">
-        <v>0</v>
-      </c>
-      <c r="W17" s="42">
-        <v>0</v>
-      </c>
-      <c r="X17" s="30">
+      <c r="V17" s="38">
+        <v>0</v>
+      </c>
+      <c r="W17" s="38">
+        <v>0</v>
+      </c>
+      <c r="X17" s="26">
         <v>0.97</v>
       </c>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.2">
-      <c r="D18" s="37">
+      <c r="D18" s="33">
         <v>1</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1852,16 +1860,16 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1872,13 +1880,13 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1892,10 +1900,10 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1912,7 +1920,7 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="33">
         <v>1</v>
       </c>
     </row>
